--- a/JupyterNotebooks/AveragedIntensites/SA-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/SA-HW30.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="SA-HW30.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="SA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1208,6 +1208,56 @@
         <v>0.9966376184708099</v>
       </c>
     </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.02888972242382</v>
+      </c>
+      <c r="D16">
+        <v>0.9467527183466591</v>
+      </c>
+      <c r="E16">
+        <v>1.006267620948166</v>
+      </c>
+      <c r="F16">
+        <v>0.9859838365847405</v>
+      </c>
+      <c r="G16">
+        <v>1.02888972242382</v>
+      </c>
+      <c r="H16">
+        <v>0.9467527183466591</v>
+      </c>
+      <c r="I16">
+        <v>1.010908137415083</v>
+      </c>
+      <c r="J16">
+        <v>0.9866228137006403</v>
+      </c>
+      <c r="K16">
+        <v>1.006267620948166</v>
+      </c>
+      <c r="L16">
+        <v>0.9641314439970358</v>
+      </c>
+      <c r="M16">
+        <v>1.02888972242382</v>
+      </c>
+      <c r="N16">
+        <v>0.9765101696474126</v>
+      </c>
+      <c r="O16">
+        <v>0.9919734745758463</v>
+      </c>
+      <c r="P16">
+        <v>0.9919779892955387</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/SA-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/SA-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.02888972242382</v>

--- a/JupyterNotebooks/AveragedIntensites/SA-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/SA-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.064012000000002</v>
+        <v>1.02888972242382</v>
       </c>
       <c r="D10">
-        <v>0.8549680000000002</v>
+        <v>0.9467527183466591</v>
       </c>
       <c r="E10">
-        <v>1.037903999999999</v>
+        <v>1.006267620948166</v>
       </c>
       <c r="F10">
-        <v>0.9643639999999996</v>
+        <v>0.9859838365847405</v>
       </c>
       <c r="G10">
-        <v>1.064012000000002</v>
+        <v>1.02888972242382</v>
       </c>
       <c r="H10">
-        <v>0.8549680000000002</v>
+        <v>0.9467527183466591</v>
       </c>
       <c r="I10">
-        <v>1.048971999999999</v>
+        <v>1.010908137415083</v>
       </c>
       <c r="J10">
-        <v>0.9747720000000005</v>
+        <v>0.9866228137006403</v>
       </c>
       <c r="K10">
-        <v>1.028563999999999</v>
+        <v>1.006267620948166</v>
       </c>
       <c r="L10">
-        <v>0.9062240000000009</v>
+        <v>0.9641314439970358</v>
       </c>
       <c r="M10">
-        <v>1.064012000000002</v>
+        <v>1.02888972242382</v>
       </c>
       <c r="N10">
-        <v>0.9464359999999995</v>
+        <v>0.9765101696474126</v>
       </c>
       <c r="O10">
-        <v>0.9803120000000001</v>
+        <v>0.9919734745758463</v>
       </c>
       <c r="P10">
-        <v>0.9849724999999999</v>
+        <v>0.9919779892955387</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.11</v>
+        <v>1.063144878672589</v>
       </c>
       <c r="D11">
-        <v>0.7944500000000024</v>
+        <v>0.8718982202546992</v>
       </c>
       <c r="E11">
-        <v>1.043050000000001</v>
+        <v>1.034318162922135</v>
       </c>
       <c r="F11">
-        <v>0.9475124999999988</v>
+        <v>0.9701860914520705</v>
       </c>
       <c r="G11">
-        <v>1.11</v>
+        <v>1.063144878672589</v>
       </c>
       <c r="H11">
-        <v>0.7944500000000024</v>
+        <v>0.8718982202546992</v>
       </c>
       <c r="I11">
-        <v>1.07</v>
+        <v>1.040294565969237</v>
       </c>
       <c r="J11">
-        <v>0.96</v>
+        <v>0.9746022497151352</v>
       </c>
       <c r="K11">
-        <v>1.05</v>
+        <v>1.021402246213574</v>
       </c>
       <c r="L11">
-        <v>0.87</v>
+        <v>0.9157216013569897</v>
       </c>
       <c r="M11">
-        <v>1.11</v>
+        <v>1.063144878672589</v>
       </c>
       <c r="N11">
-        <v>0.9187500000000017</v>
+        <v>0.9531081915884173</v>
       </c>
       <c r="O11">
-        <v>0.9737531250000006</v>
+        <v>0.9848868383253734</v>
       </c>
       <c r="P11">
-        <v>0.9806265625000004</v>
+        <v>0.9864460020695538</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.062597072486396</v>
+        <v>1.062735922220136</v>
       </c>
       <c r="D12">
-        <v>0.8777196858368004</v>
+        <v>0.8723433355314836</v>
       </c>
       <c r="E12">
-        <v>1.023768468889597</v>
+        <v>1.034269962343455</v>
       </c>
       <c r="F12">
-        <v>0.9678807928832042</v>
+        <v>0.970293601554107</v>
       </c>
       <c r="G12">
-        <v>1.062597072486396</v>
+        <v>1.062735922220136</v>
       </c>
       <c r="H12">
-        <v>0.8777196858368004</v>
+        <v>0.8723433355314836</v>
       </c>
       <c r="I12">
-        <v>1.038550623744004</v>
+        <v>1.0401372217318</v>
       </c>
       <c r="J12">
-        <v>0.9743610972160013</v>
+        <v>0.9747237756893432</v>
       </c>
       <c r="K12">
-        <v>1.026906695065596</v>
+        <v>1.021247363968429</v>
       </c>
       <c r="L12">
-        <v>0.9224142880768027</v>
+        <v>0.9160226533190126</v>
       </c>
       <c r="M12">
-        <v>1.062597072486396</v>
+        <v>1.062735922220136</v>
       </c>
       <c r="N12">
-        <v>0.9507440773631989</v>
+        <v>0.9533066489374693</v>
       </c>
       <c r="O12">
-        <v>0.9829915050239995</v>
+        <v>0.9849107054122952</v>
       </c>
       <c r="P12">
-        <v>0.9867748405248002</v>
+        <v>0.9864717295447207</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9959084322891807</v>
+        <v>1.06306815280823</v>
       </c>
       <c r="D13">
-        <v>0.9950620489413309</v>
+        <v>0.8719509310398167</v>
       </c>
       <c r="E13">
-        <v>0.9949473699897788</v>
+        <v>1.034354012378342</v>
       </c>
       <c r="F13">
-        <v>0.9951677999633605</v>
+        <v>0.970208129526667</v>
       </c>
       <c r="G13">
-        <v>0.9959084322891807</v>
+        <v>1.06306815280823</v>
       </c>
       <c r="H13">
-        <v>0.9950620489413309</v>
+        <v>0.8719509310398167</v>
       </c>
       <c r="I13">
-        <v>0.9950734519140056</v>
+        <v>1.040263894517532</v>
       </c>
       <c r="J13">
-        <v>0.9955598358402616</v>
+        <v>0.9746304761116122</v>
       </c>
       <c r="K13">
-        <v>0.9954845923855136</v>
+        <v>1.021344916962991</v>
       </c>
       <c r="L13">
-        <v>0.9950443528309405</v>
+        <v>0.9157765967129831</v>
       </c>
       <c r="M13">
-        <v>0.9959084322891807</v>
+        <v>1.06306815280823</v>
       </c>
       <c r="N13">
-        <v>0.9950047094655549</v>
+        <v>0.9531524717090791</v>
       </c>
       <c r="O13">
-        <v>0.9952714127959127</v>
+        <v>0.984895306438264</v>
       </c>
       <c r="P13">
-        <v>0.9952809855192966</v>
+        <v>0.9864496387572718</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.989452046119333</v>
+        <v>1.064012000000002</v>
       </c>
       <c r="D14">
-        <v>1.001925943980766</v>
+        <v>0.8549680000000002</v>
       </c>
       <c r="E14">
-        <v>0.9955028962436309</v>
+        <v>1.037903999999999</v>
       </c>
       <c r="F14">
-        <v>0.9963759342021271</v>
+        <v>0.9643639999999996</v>
       </c>
       <c r="G14">
-        <v>0.989452046119333</v>
+        <v>1.064012000000002</v>
       </c>
       <c r="H14">
-        <v>1.001925943980766</v>
+        <v>0.8549680000000002</v>
       </c>
       <c r="I14">
-        <v>0.9927013703325483</v>
+        <v>1.048971999999999</v>
       </c>
       <c r="J14">
-        <v>0.9973050308813205</v>
+        <v>0.9747720000000005</v>
       </c>
       <c r="K14">
-        <v>0.9924674077872336</v>
+        <v>1.028563999999999</v>
       </c>
       <c r="L14">
-        <v>0.9995685899046446</v>
+        <v>0.9062240000000009</v>
       </c>
       <c r="M14">
-        <v>0.989452046119333</v>
+        <v>1.064012000000002</v>
       </c>
       <c r="N14">
-        <v>0.9987144201121982</v>
+        <v>0.9464359999999995</v>
       </c>
       <c r="O14">
-        <v>0.9958142051364641</v>
+        <v>0.9803120000000001</v>
       </c>
       <c r="P14">
-        <v>0.9956624024314504</v>
+        <v>0.9849724999999999</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9800078939874022</v>
+        <v>1.11</v>
       </c>
       <c r="D15">
-        <v>1.016415740110491</v>
+        <v>0.7944500000000024</v>
       </c>
       <c r="E15">
-        <v>0.9905726222273578</v>
+        <v>1.043050000000001</v>
       </c>
       <c r="F15">
-        <v>1.00015042395527</v>
+        <v>0.9475124999999988</v>
       </c>
       <c r="G15">
-        <v>0.9800078939874022</v>
+        <v>1.11</v>
       </c>
       <c r="H15">
-        <v>1.016415740110491</v>
+        <v>0.7944500000000024</v>
       </c>
       <c r="I15">
-        <v>0.986881509433071</v>
+        <v>1.07</v>
       </c>
       <c r="J15">
-        <v>0.9994405788272167</v>
+        <v>0.96</v>
       </c>
       <c r="K15">
-        <v>0.9900236527316723</v>
+        <v>1.05</v>
       </c>
       <c r="L15">
-        <v>1.009608526493999</v>
+        <v>0.87</v>
       </c>
       <c r="M15">
-        <v>0.9800078939874022</v>
+        <v>1.11</v>
       </c>
       <c r="N15">
-        <v>1.003494181168924</v>
+        <v>0.9187500000000017</v>
       </c>
       <c r="O15">
-        <v>0.9967866700701302</v>
+        <v>0.9737531250000006</v>
       </c>
       <c r="P15">
-        <v>0.9966376184708099</v>
+        <v>0.9806265625000004</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.02888972242382</v>
+        <v>1.062597072486396</v>
       </c>
       <c r="D16">
-        <v>0.9467527183466591</v>
+        <v>0.8777196858368004</v>
       </c>
       <c r="E16">
-        <v>1.006267620948166</v>
+        <v>1.023768468889597</v>
       </c>
       <c r="F16">
-        <v>0.9859838365847405</v>
+        <v>0.9678807928832042</v>
       </c>
       <c r="G16">
-        <v>1.02888972242382</v>
+        <v>1.062597072486396</v>
       </c>
       <c r="H16">
-        <v>0.9467527183466591</v>
+        <v>0.8777196858368004</v>
       </c>
       <c r="I16">
-        <v>1.010908137415083</v>
+        <v>1.038550623744004</v>
       </c>
       <c r="J16">
-        <v>0.9866228137006403</v>
+        <v>0.9743610972160013</v>
       </c>
       <c r="K16">
-        <v>1.006267620948166</v>
+        <v>1.026906695065596</v>
       </c>
       <c r="L16">
-        <v>0.9641314439970358</v>
+        <v>0.9224142880768027</v>
       </c>
       <c r="M16">
-        <v>1.02888972242382</v>
+        <v>1.062597072486396</v>
       </c>
       <c r="N16">
-        <v>0.9765101696474126</v>
+        <v>0.9507440773631989</v>
       </c>
       <c r="O16">
-        <v>0.9919734745758463</v>
+        <v>0.9829915050239995</v>
       </c>
       <c r="P16">
-        <v>0.9919779892955387</v>
+        <v>0.9867748405248002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9959084322891807</v>
+      </c>
+      <c r="D17">
+        <v>0.9950620489413309</v>
+      </c>
+      <c r="E17">
+        <v>0.9949473699897788</v>
+      </c>
+      <c r="F17">
+        <v>0.9951677999633605</v>
+      </c>
+      <c r="G17">
+        <v>0.9959084322891807</v>
+      </c>
+      <c r="H17">
+        <v>0.9950620489413309</v>
+      </c>
+      <c r="I17">
+        <v>0.9950734519140056</v>
+      </c>
+      <c r="J17">
+        <v>0.9955598358402616</v>
+      </c>
+      <c r="K17">
+        <v>0.9954845923855136</v>
+      </c>
+      <c r="L17">
+        <v>0.9950443528309405</v>
+      </c>
+      <c r="M17">
+        <v>0.9959084322891807</v>
+      </c>
+      <c r="N17">
+        <v>0.9950047094655549</v>
+      </c>
+      <c r="O17">
+        <v>0.9952714127959127</v>
+      </c>
+      <c r="P17">
+        <v>0.9952809855192966</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.989452046119333</v>
+      </c>
+      <c r="D18">
+        <v>1.001925943980766</v>
+      </c>
+      <c r="E18">
+        <v>0.9955028962436309</v>
+      </c>
+      <c r="F18">
+        <v>0.9963759342021271</v>
+      </c>
+      <c r="G18">
+        <v>0.989452046119333</v>
+      </c>
+      <c r="H18">
+        <v>1.001925943980766</v>
+      </c>
+      <c r="I18">
+        <v>0.9927013703325483</v>
+      </c>
+      <c r="J18">
+        <v>0.9973050308813205</v>
+      </c>
+      <c r="K18">
+        <v>0.9924674077872336</v>
+      </c>
+      <c r="L18">
+        <v>0.9995685899046446</v>
+      </c>
+      <c r="M18">
+        <v>0.989452046119333</v>
+      </c>
+      <c r="N18">
+        <v>0.9987144201121982</v>
+      </c>
+      <c r="O18">
+        <v>0.9958142051364641</v>
+      </c>
+      <c r="P18">
+        <v>0.9956624024314504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9800078939874022</v>
+      </c>
+      <c r="D19">
+        <v>1.016415740110491</v>
+      </c>
+      <c r="E19">
+        <v>0.9905726222273578</v>
+      </c>
+      <c r="F19">
+        <v>1.00015042395527</v>
+      </c>
+      <c r="G19">
+        <v>0.9800078939874022</v>
+      </c>
+      <c r="H19">
+        <v>1.016415740110491</v>
+      </c>
+      <c r="I19">
+        <v>0.986881509433071</v>
+      </c>
+      <c r="J19">
+        <v>0.9994405788272167</v>
+      </c>
+      <c r="K19">
+        <v>0.9900236527316723</v>
+      </c>
+      <c r="L19">
+        <v>1.009608526493999</v>
+      </c>
+      <c r="M19">
+        <v>0.9800078939874022</v>
+      </c>
+      <c r="N19">
+        <v>1.003494181168924</v>
+      </c>
+      <c r="O19">
+        <v>0.9967866700701302</v>
+      </c>
+      <c r="P19">
+        <v>0.9966376184708099</v>
       </c>
     </row>
   </sheetData>
